--- a/SOP/Aula5-15.09.2023/ExerciciosExcel.xlsx
+++ b/SOP/Aula5-15.09.2023/ExerciciosExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Carlos\SENAI-2023\SOP\Aula5-15.09.2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72224365-CE07-4A90-980F-9BFE65C0D0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A66821-08C2-4E9B-9D12-B173AB9826D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0FFC0C3A-9ADF-4DAC-B6C2-C5D113789477}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FFC0C3A-9ADF-4DAC-B6C2-C5D113789477}"/>
   </bookViews>
   <sheets>
     <sheet name="OrçamentoChurrasco" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -448,7 +448,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -463,10 +463,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -476,10 +476,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -498,6 +495,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -817,7 +817,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -833,22 +833,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>10</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
@@ -1052,377 +1052,380 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <f ca="1">RANDBETWEEN(1,31)</f>
+        <v>9</v>
+      </c>
+      <c r="F2" s="17" t="str">
+        <f ca="1">VLOOKUP(E2,A2:B32,2,FALSE)</f>
+        <v>Carlos Henrique Jesus de Almeida Filho</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>31</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>14</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>19</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>24</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>12</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>22</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>30</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>29</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>18</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>8</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>23</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <v>25</v>
       </c>
-      <c r="F2" s="18" t="str">
-        <f ca="1">VLOOKUP(E2,A2:B32,2,FALSE)</f>
-        <v>Karina Corrêa Shifferli Santos</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>5</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>31</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>26</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>14</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>19</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>13</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>24</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>12</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>22</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>27</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>30</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>29</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>18</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>15</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>8</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>23</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>25</v>
-      </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>28</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>20</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>17</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>10</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>16</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>7</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>1</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <v>21</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="17">
         <v>3</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <v>4</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="17">
         <v>2</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>93</v>
       </c>
     </row>
